--- a/QALD9-Plus-testing/few-shot-entity-aligned/few-shot-dbpedia-wikidata/few_shot_llama_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/few-shot-entity-aligned/few-shot-dbpedia-wikidata/few_shot_llama_dbpedia_wikidata_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Who is the founder of Penguin Books?</t>
+          <t>Which films did Stanley Kubrick direct?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1263483']</t>
+          <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1263483']</t>
+          <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Which films did Stanley Kubrick direct?</t>
+          <t>Who developed Skype?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
+          <t>['http://www.wikidata.org/entity/Q246125']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103474', 'http://www.wikidata.org/entity/Q105702', 'http://www.wikidata.org/entity/Q108297', 'http://www.wikidata.org/entity/Q110624336', 'http://www.wikidata.org/entity/Q1434632', 'http://www.wikidata.org/entity/Q181086', 'http://www.wikidata.org/entity/Q186341', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q2164458', 'http://www.wikidata.org/entity/Q243439', 'http://www.wikidata.org/entity/Q426628', 'http://www.wikidata.org/entity/Q471716', 'http://www.wikidata.org/entity/Q536560', 'http://www.wikidata.org/entity/Q592072', 'http://www.wikidata.org/entity/Q747936', 'http://www.wikidata.org/entity/Q929157', 'http://www.wikidata.org/entity/Q936477']</t>
+          <t>['http://www.wikidata.org/entity/Q246125']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,37 +498,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Show a list of soccer clubs that play in the Bundesliga.</t>
+          <t>Give me all actors starring in movies directed by William Shatner.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
+          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q702455']</t>
+          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
         </is>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Give me all actors starring in movies directed by William Shatner.</t>
+          <t>How many films did Leonardo DiCaprio star in?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>How many films did Leonardo DiCaprio star in?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>['1986-02-28T00:00:00Z']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,21 +558,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>For which label did Elvis record his first album?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['http://www.wikidata.org/entity/Q202585']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['http://www.wikidata.org/entity/Q3415083']</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -638,41 +638,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q12152']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q1324130']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>What is the highest mountain in Italy?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q102174232']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q123374100']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
+          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -818,37 +818,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Give me all the TV shows with Neil Patrick Harris.</t>
+          <t>Give me all islands that belong to Japan.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q16004491', 'http://www.wikidata.org/entity/Q4022709', 'http://www.wikidata.org/entity/Q3224576', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1964370', 'http://www.wikidata.org/entity/Q6944937', 'http://www.wikidata.org/entity/Q7548538', 'http://www.wikidata.org/entity/Q7722777', 'http://www.wikidata.org/entity/Q8907426', 'http://www.wikidata.org/entity/Q6988215', 'http://www.wikidata.org/entity/Q842253', 'http://www.wikidata.org/entity/Q937913', 'http://www.wikidata.org/entity/Q104630896', 'http://www.wikidata.org/entity/Q112417328', 'http://www.wikidata.org/entity/Q25340369', 'http://www.wikidata.org/entity/Q3063140', 'http://www.wikidata.org/entity/Q147235']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q104630896', 'http://www.wikidata.org/entity/Q106009390', 'http://www.wikidata.org/entity/Q11158351', 'http://www.wikidata.org/entity/Q112417328', 'http://www.wikidata.org/entity/Q1165259', 'http://www.wikidata.org/entity/Q11696021', 'http://www.wikidata.org/entity/Q123738332', 'http://www.wikidata.org/entity/Q1247216', 'http://www.wikidata.org/entity/Q1253366', 'http://www.wikidata.org/entity/Q12812380', 'http://www.wikidata.org/entity/Q1327587', 'http://www.wikidata.org/entity/Q13582568', 'http://www.wikidata.org/entity/Q147235', 'http://www.wikidata.org/entity/Q14920425', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1514038', 'http://www.wikidata.org/entity/Q16004491', 'http://www.wikidata.org/entity/Q16744365', 'http://www.wikidata.org/entity/Q16744432', 'http://www.wikidata.org/entity/Q16744533', 'http://www.wikidata.org/entity/Q16744831', 'http://www.wikidata.org/entity/Q16744898', 'http://www.wikidata.org/entity/Q16745082', 'http://www.wikidata.org/entity/Q16745474', 'http://www.wikidata.org/entity/Q16999091', 'http://www.wikidata.org/entity/Q1964370', 'http://www.wikidata.org/entity/Q2093198', 'http://www.wikidata.org/entity/Q22075017', 'http://www.wikidata.org/entity/Q25340369', 'http://www.wikidata.org/entity/Q27032285', 'http://www.wikidata.org/entity/Q303040', 'http://www.wikidata.org/entity/Q3063140', 'http://www.wikidata.org/entity/Q3224576', 'http://www.wikidata.org/entity/Q3410974', 'http://www.wikidata.org/entity/Q3480575', 'http://www.wikidata.org/entity/Q4022709', 'http://www.wikidata.org/entity/Q43408', 'http://www.wikidata.org/entity/Q4508577', 'http://www.wikidata.org/entity/Q454398', 'http://www.wikidata.org/entity/Q4655814', 'http://www.wikidata.org/entity/Q467447', 'http://www.wikidata.org/entity/Q468587', 'http://www.wikidata.org/entity/Q4714008', 'http://www.wikidata.org/entity/Q471448', 'http://www.wikidata.org/entity/Q4764898', 'http://www.wikidata.org/entity/Q478618', 'http://www.wikidata.org/entity/Q478626', 'http://www.wikidata.org/entity/Q4786988', 'http://www.wikidata.org/entity/Q4796038', 'http://www.wikidata.org/entity/Q4802871', 'http://www.wikidata.org/entity/Q4809956', 'http://www.wikidata.org/entity/Q4816330', 'http://www.wikidata.org/entity/Q4817584', 'http://www.wikidata.org/entity/Q4818636', 'http://www.wikidata.org/entity/Q4818989', 'http://www.wikidata.org/entity/Q4819005', 'http://www.wikidata.org/entity/Q4838409', 'http://www.wikidata.org/entity/Q4838767', 'http://www.wikidata.org/entity/Q4840393', 'http://www.wikidata.org/entity/Q4842089', 'http://www.wikidata.org/entity/Q4884249', 'http://www.wikidata.org/entity/Q4887462', 'http://www.wikidata.org/entity/Q48986965', 'http://www.wikidata.org/entity/Q48986998', 'http://www.wikidata.org/entity/Q4905561', 'http://www.wikidata.org/entity/Q4926969', 'http://www.wikidata.org/entity/Q4978859', 'http://www.wikidata.org/entity/Q5032697', 'http://www.wikidata.org/entity/Q5068893', 'http://www.wikidata.org/entity/Q5130568', 'http://www.wikidata.org/entity/Q5150219', 'http://www.wikidata.org/entity/Q5151207', 'http://www.wikidata.org/entity/Q5251610', 'http://www.wikidata.org/entity/Q5264968', 'http://www.wikidata.org/entity/Q5286037', 'http://www.wikidata.org/entity/Q5297338', 'http://www.wikidata.org/entity/Q5299707', 'http://www.wikidata.org/entity/Q5302688', 'http://www.wikidata.org/entity/Q5311567', 'http://www.wikidata.org/entity/Q5312159', 'http://www.wikidata.org/entity/Q5390598', 'http://www.wikidata.org/entity/Q5418077', 'http://www.wikidata.org/entity/Q5446960', 'http://www.wikidata.org/entity/Q5453909', 'http://www.wikidata.org/entity/Q550558', 'http://www.wikidata.org/entity/Q5521981', 'http://www.wikidata.org/entity/Q5569954', 'http://www.wikidata.org/entity/Q5659857', 'http://www.wikidata.org/entity/Q5888848', 'http://www.wikidata.org/entity/Q5897994', 'http://www.wikidata.org/entity/Q5917914', 'http://www.wikidata.org/entity/Q5966619', 'http://www.wikidata.org/entity/Q5977616', 'http://www.wikidata.org/entity/Q6057332', 'http://www.wikidata.org/entity/Q607643', 'http://www.wikidata.org/entity/Q6177573', 'http://www.wikidata.org/entity/Q6494247', 'http://www.wikidata.org/entity/Q6494765', 'http://www.wikidata.org/entity/Q6649263', 'http://www.wikidata.org/entity/Q6650946', 'http://www.wikidata.org/entity/Q6697995', 'http://www.wikidata.org/entity/Q6781049', 'http://www.wikidata.org/entity/Q6857975', 'http://www.wikidata.org/entity/Q6872505', 'http://www.wikidata.org/entity/Q6898646', 'http://www.wikidata.org/entity/Q6915368', 'http://www.wikidata.org/entity/Q6927048', 'http://www.wikidata.org/entity/Q6939712', 'http://www.wikidata.org/entity/Q6944937', 'http://www.wikidata.org/entity/Q6980510', 'http://www.wikidata.org/entity/Q6988215', 'http://www.wikidata.org/entity/Q7045118', 'http://www.wikidata.org/entity/Q7062256', 'http://www.wikidata.org/entity/Q7078742', 'http://www.wikidata.org/entity/Q7080458', 'http://www.wikidata.org/entity/Q7084332', 'http://www.wikidata.org/entity/Q7168067', 'http://www.wikidata.org/entity/Q7278639', 'http://www.wikidata.org/entity/Q7302194', 'http://www.wikidata.org/entity/Q7333560', 'http://www.wikidata.org/entity/Q7352213', 'http://www.wikidata.org/entity/Q7353472', 'http://www.wikidata.org/entity/Q740754', 'http://www.wikidata.org/entity/Q7416049', 'http://www.wikidata.org/entity/Q7428911', 'http://www.wikidata.org/entity/Q7493961', 'http://www.wikidata.org/entity/Q7503196', 'http://www.wikidata.org/entity/Q7523890', 'http://www.wikidata.org/entity/Q7538689', 'http://www.wikidata.org/entity/Q7538737', 'http://www.wikidata.org/entity/Q7538739', 'http://www.wikidata.org/entity/Q7548538', 'http://www.wikidata.org/entity/Q7560072', 'http://www.wikidata.org/entity/Q7560076', 'http://www.wikidata.org/entity/Q7563711', 'http://www.wikidata.org/entity/Q7578829', 'http://www.wikidata.org/entity/Q7628512', 'http://www.wikidata.org/entity/Q7632493', 'http://www.wikidata.org/entity/Q7653878', 'http://www.wikidata.org/entity/Q7693527', 'http://www.wikidata.org/entity/Q7699307', 'http://www.wikidata.org/entity/Q7716685', 'http://www.wikidata.org/entity/Q7716739', 'http://www.wikidata.org/entity/Q7716848', 'http://www.wikidata.org/entity/Q7719787', 'http://www.wikidata.org/entity/Q7721991', 'http://www.wikidata.org/entity/Q7722777', 'http://www.wikidata.org/entity/Q7731151', 'http://www.wikidata.org/entity/Q7732842', 'http://www.wikidata.org/entity/Q7733793', 'http://www.wikidata.org/entity/Q7735363', 'http://www.wikidata.org/entity/Q7746548', 'http://www.wikidata.org/entity/Q7747382', 'http://www.wikidata.org/entity/Q7751084', 'http://www.wikidata.org/entity/Q7753029', 'http://www.wikidata.org/entity/Q7753043', 'http://www.wikidata.org/entity/Q7756678', 'http://www.wikidata.org/entity/Q7757165', 'http://www.wikidata.org/entity/Q7757425', 'http://www.wikidata.org/entity/Q7757442', 'http://www.wikidata.org/entity/Q7757844', 'http://www.wikidata.org/entity/Q7761604', 'http://www.wikidata.org/entity/Q7762621', 'http://www.wikidata.org/entity/Q7763510', 'http://www.wikidata.org/entity/Q7764957', 'http://www.wikidata.org/entity/Q7766552', 'http://www.wikidata.org/entity/Q7766553', 'http://www.wikidata.org/entity/Q7768975', 'http://www.wikidata.org/entity/Q7774052', 'http://www.wikidata.org/entity/Q7775094', 'http://www.wikidata.org/entity/Q7776702', 'http://www.wikidata.org/entity/Q7785012', 'http://www.wikidata.org/entity/Q7797439', 'http://www.wikidata.org/entity/Q7858076', 'http://www.wikidata.org/entity/Q7960404', 'http://www.wikidata.org/entity/Q7977135', 'http://www.wikidata.org/entity/Q7993362', 'http://www.wikidata.org/entity/Q80322391', 'http://www.wikidata.org/entity/Q8034023', 'http://www.wikidata.org/entity/Q8035235', 'http://www.wikidata.org/entity/Q8072588', 'http://www.wikidata.org/entity/Q8074081', 'http://www.wikidata.org/entity/Q813057', 'http://www.wikidata.org/entity/Q8247171', 'http://www.wikidata.org/entity/Q842253', 'http://www.wikidata.org/entity/Q87220566', 'http://www.wikidata.org/entity/Q8907426', 'http://www.wikidata.org/entity/Q9030442', 'http://www.wikidata.org/entity/Q9078314', 'http://www.wikidata.org/entity/Q937913', 'http://www.wikidata.org/entity/Q959335']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -858,57 +858,57 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['9606916']</t>
+          <t>['http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['9606916']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
         </is>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['147']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['147']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>In which country is Mecca located?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>What was the last movie with Alec Guinness?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['180']</t>
+          <t>['http://www.wikidata.org/entity/Q6074']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['180']</t>
+          <t>['http://www.wikidata.org/entity/Q6074']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
+          <t>['http://www.wikidata.org/entity/Q100', 'http://www.wikidata.org/entity/Q1000003', 'http://www.wikidata.org/entity/Q1000008', 'http://www.wikidata.org/entity/Q1000009', 'http://www.wikidata.org/entity/Q1000011', 'http://www.wikidata.org/entity/Q1000016', 'http://www.wikidata.org/entity/Q1000018', 'http://www.wikidata.org/entity/Q1000024', 'http://www.wikidata.org/entity/Q1000029', 'http://www.wikidata.org/entity/Q1000030', 'http://www.wikidata.org/entity/Q1000033', 'http://www.wikidata.org/entity/Q1000041', 'http://www.wikidata.org/entity/Q1000046', 'http://www.wikidata.org/entity/Q1000056', 'http://www.wikidata.org/entity/Q1000060', 'http://www.wikidata.org/entity/Q1000065', 'http://www.wikidata.org/entity/Q1000069', 'http://www.wikidata.org/entity/Q1000073', 'http://www.wikidata.org/entity/Q1000078', 'http://www.wikidata.org/entity/Q1000082', 'http://www.wikidata.org/entity/Q1000086', 'http://www.wikidata.org/entity/Q1000091', 'http://www.wikidata.org/entity/Q1000097', 'http://www.wikidata.org/entity/Q10001', 'http://www.wikidata.org/entity/Q1000101', 'http://www.wikidata.org/entity/Q1000103', 'http://www.wikidata.org/entity/Q1000105', 'http://www.wikidata.org/entity/Q1000111', 'http://www.wikidata.org/entity/Q1000123', 'http://www.wikidata.org/entity/Q100013', 'http://www.wikidata.org/entity/Q1000132', 'http://www.wikidata.org/entity/Q1000133', 'http://www.wikidata.org/entity/Q1000134', 'http://www.wikidata.org/entity/Q1000135', 'http://www.wikidata.org/entity/Q1000136', 'http://www.wikidata.org/entity/Q1000137', 'http://www.wikidata.org/entity/Q1000138', 'http://www.wikidata.org/entity/Q1000139', 'http://www.wikidata.org/entity/Q1000140', 'http://www.wikidata.org/entity/Q1000141', 'http://www.wikidata.org/entity/Q1000143', 'http://www.wikidata.org/entity/Q1000146', 'http://www.wikidata.org/entity/Q1000148', 'http://www.wikidata.org/entity/Q100015', 'http://www.wikidata.org/entity/Q1000150', 'http://www.wikidata.org/entity/Q1000152', 'http://www.wikidata.org/entity/Q100016', 'http://www.wikidata.org/entity/Q1000160', 'http://www.wikidata.org/entity/Q1000163', 'http://www.wikidata.org/entity/Q1000166', 'http://www.wikidata.org/entity/Q1000172', 'http://www.wikidata.org/entity/Q1000175', 'http://www.wikidata.org/entity/Q1000178', 'http://www.wikidata.org/entity/Q1000179', 'http://www.wikidata.org/entity/Q100018', 'http://www.wikidata.org/entity/Q1000182', 'http://www.wikidata.org/entity/Q1000184', 'http://www.wikidata.org/entity/Q1000186', 'http://www.wikidata.org/entity/Q1000191', 'http://www.wikidata.org/entity/Q1000196', 'http://www.wikidata.org/entity/Q10002', 'http://www.wikidata.org/entity/Q1000201', 'http://www.wikidata.org/entity/Q1000205', 'http://www.wikidata.org/entity/Q1000208', 'http://www.wikidata.org/entity/Q1000211', 'http://www.wikidata.org/entity/Q1000213', 'http://www.wikidata.org/entity/Q1000217', 'http://www.wikidata.org/entity/Q1000222', 'http://www.wikidata.org/entity/Q1000223', 'http://www.wikidata.org/entity/Q1000225', 'http://www.wikidata.org/entity/Q1000227', 'http://www.wikidata.org/entity/Q1000232', 'http://www.wikidata.org/entity/Q1000236', 'http://www.wikidata.org/entity/Q1000237', 'http://www.wikidata.org/entity/Q1000239', 'http://www.wikidata.org/entity/Q1000241', 'http://www.wikidata.org/entity/Q1000244', 'http://www.wikidata.org/entity/Q1000245', 'http://www.wikidata.org/entity/Q1000248', 'http://www.wikidata.org/entity/Q1000253', 'http://www.wikidata.org/entity/Q1000283', 'http://www.wikidata.org/entity/Q10003', 'http://www.wikidata.org/entity/Q1000304', 'http://www.wikidata.org/entity/Q1000319', 'http://www.wikidata.org/entity/Q1000325', 'http://www.wikidata.org/entity/Q1000330', 'http://www.wikidata.org/entity/Q1000333', 'http://www.wikidata.org/entity/Q1000336', 'http://www.wikidata.org/entity/Q1000339', 'http://www.wikidata.org/entity/Q1000340', 'http://www.wikidata.org/entity/Q1000341', 'http://www.wikidata.org/entity/Q1000344', 'http://www.wikidata.org/entity/Q1000345', 'http://www.wikidata.org/entity/Q1000346', 'http://www.wikidata.org/entity/Q1000350', 'http://www.wikidata.org/entity/Q1000353', 'http://www.wikidata.org/entity/Q1000355', 'http://www.wikidata.org/entity/Q100036', 'http://www.wikidata.org/entity/Q1000360', 'http://www.wikidata.org/entity/Q1000362', 'http://www.wikidata.org/entity/Q1000365', 'http://www.wikidata.org/entity/Q1000368', 'http://www.wikidata.org/entity/Q1000373', 'http://www.wikidata.org/entity/Q1000375', 'http://www.wikidata.org/entity/Q100038', 'http://www.wikidata.org/entity/Q100039', 'http://www.wikidata.org/entity/Q1000390', 'http://www.wikidata.org/entity/Q1000397', 'http://www.wikidata.org/entity/Q1000398', 'http://www.wikidata.org/entity/Q100040', 'http://www.wikidata.org/entity/Q1000404', 'http://www.wikidata.org/entity/Q100041', 'http://www.wikidata.org/entity/Q1000424', 'http://www.wikidata.org/entity/Q1000426', 'http://www.wikidata.org/entity/Q100043', 'http://www.wikidata.org/entity/Q1000437', 'http://www.wikidata.org/entity/Q100044', 'http://www.wikidata.org/entity/Q1000445', 'http://www.wikidata.org/entity/Q1000446', 'http://www.wikidata.org/entity/Q100045', 'http://www.wikidata.org/entity/Q1000454', 'http://www.wikidata.org/entity/Q100046', 'http://www.wikidata.org/entity/Q1000461', 'http://www.wikidata.org/entity/Q1000467', 'http://www.wikidata.org/entity/Q1000474', 'http://www.wikidata.org/entity/Q1000475', 'http://www.wikidata.org/entity/Q100048', 'http://www.wikidata.org/entity/Q1000481', 'http://www.wikidata.org/entity/Q1000485', 'http://www.wikidata.org/entity/Q100049', 'http://www.wikidata.org/entity/Q1000495', 'http://www.wikidata.org/entity/Q10005', 'http://www.wikidata.org/entity/Q100050', 'http://www.wikidata.org/entity/Q100051', 'http://www.wikidata.org/entity/Q1000511', 'http://www.wikidata.org/entity/Q100052', 'http://www.wikidata.org/entity/Q100055', 'http://www.wikidata.org/entity/Q100056', 'http://www.wikidata.org/entity/Q1000564', 'http://www.wikidata.org/entity/Q100057', 'http://www.wikidata.org/entity/Q100058', 'http://www.wikidata.org/entity/Q1000589', 'http://www.wikidata.org/entity/Q10006', 'http://www.wikidata.org/entity/Q100060', 'http://www.wikidata.org/entity/Q1000609', 'http://www.wikidata.org/entity/Q100061', 'http://www.wikidata.org/entity/Q100064', 'http://www.wikidata.org/entity/Q1000641', 'http://www.wikidata.org/entity/Q1000642', 'http://www.wikidata.org/entity/Q100065', 'http://www.wikidata.org/entity/Q1000671', 'http://www.wikidata.org/entity/Q1000677', 'http://www.wikidata.org/entity/Q100069', 'http://www.wikidata.org/entity/Q100070', 'http://www.wikidata.org/entity/Q1000705', 'http://www.wikidata.org/entity/Q1000707', 'http://www.wikidata.org/entity/Q1000709', 'http://www.wikidata.org/entity/Q1000715', 'http://www.wikidata.org/entity/Q100072', 'http://www.wikidata.org/entity/Q1000749', 'http://www.wikidata.org/entity/Q1000758', 'http://www.wikidata.org/entity/Q1000770', 'http://www.wikidata.org/entity/Q1000779', 'http://www.wikidata.org/entity/Q1000786', 'http://www.wikidata.org/entity/Q1000790', 'http://www.wikidata.org/entity/Q1000793', 'http://www.wikidata.org/entity/Q1000796', 'http://www.wikidata.org/entity/Q100080', 'http://www.wikidata.org/entity/Q100081', 'http://www.wikidata.org/entity/Q1000817', 'http://www.wikidata.org/entity/Q1000823', 'http://www.wikidata.org/entity/Q100083', 'http://www.wikidata.org/entity/Q1000831', 'http://www.wikidata.org/entity/Q1000839', 'http://www.wikidata.org/entity/Q100084', 'http://www.wikidata.org/entity/Q1000844', 'http://www.wikidata.org/entity/Q1000846', 'http://www.wikidata.org/entity/Q1000852', 'http://www.wikidata.org/entity/Q100086', 'http://www.wikidata.org/entity/Q1000865', 'http://www.wikidata.org/entity/Q1000866', 'http://www.wikidata.org/entity/Q100087', 'http://www.wikidata.org/entity/Q1000871', 'http://www.wikidata.org/entity/Q1000873', 'http://www.wikidata.org/entity/Q1000878', 'http://www.wikidata.org/entity/Q100088', 'http://www.wikidata.org/entity/Q1000881', 'http://www.wikidata.org/entity/Q1000883', 'http://www.wikidata.org/entity/Q1000887', 'http://www.wikidata.org/entity/Q100089', 'http://www.wikidata.org/entity/Q1000892', 'http://www.wikidata.org/entity/Q1000893', 'http://www.wikidata.org/entity/Q1000894', 'http://www.wikidata.org/entity/Q1000900', 'http://www.wikidata.org/entity/Q1000908', 'http://www.wikidata.org/entity/Q1000909', 'http://www.wikidata.org/entity/Q100091', 'http://www.wikidata.org/entity/Q1000911', 'http://www.wikidata.org/entity/Q100092', 'http://www.wikidata.org/entity/Q1000927', 'http://www.wikidata.org/entity/Q1000936', 'http://www.wikidata.org/entity/Q100094', 'http://www.wikidata.org/entity/Q1000951', 'http://www.wikidata.org/entity/Q1000966', 'http://www.wikidata.org/entity/Q1000971', 'http://www.wikidata.org/entity/Q1000982', 'http://www.wikidata.org/entity/Q1000987', 'http://www.wikidata.org/entity/Q100099', 'http://www.wikidata.org/entity/Q1000993', 'http://www.wikidata.org/entity/Q1000996', 'http://www.wikidata.org/entity/Q1000997', 'http://www.wikidata.org/entity/Q100100', 'http://www.wikidata.org/entity/Q1001008', 'http://www.wikidata.org/entity/Q1001015', 'http://www.wikidata.org/entity/Q1001017', 'http://www.wikidata.org/entity/Q1001029', 'http://www.wikidata.org/entity/Q1001030', 'http://www.wikidata.org/entity/Q1001036', 'http://www.wikidata.org/entity/Q100104', 'http://www.wikidata.org/entity/Q100105', 'http://www.wikidata.org/entity/Q1001056', 'http://www.wikidata.org/entity/Q1001057', 'http://www.wikidata.org/entity/Q1001064', 'http://www.wikidata.org/entity/Q1001066', 'http://www.wikidata.org/entity/Q100107', 'http://www.wikidata.org/entity/Q1001075', 'http://www.wikidata.org/entity/Q100108', 'http://www.wikidata.org/entity/Q100108104', 'http://www.wikidata.org/entity/Q1001083', 'http://www.wikidata.org/entity/Q1001084', 'http://www.wikidata.org/entity/Q1001087', 'http://www.wikidata.org/entity/Q100109', 'http://www.wikidata.org/entity/Q1001092', 'http://www.wikidata.org/entity/Q1001096', 'http://www.wikidata.org/entity/Q1001101', 'http://www.wikidata.org/entity/Q1001107', 'http://www.wikidata.org/entity/Q100111', 'http://www.wikidata.org/entity/Q1001126', 'http://www.wikidata.org/entity/Q100113', 'http://www.wikidata.org/entity/Q1001134', 'http://www.wikidata.org/entity/Q100114', 'http://www.wikidata.org/entity/Q1001153', 'http://www.wikidata.org/entity/Q1001156', 'http://www.wikidata.org/entity/Q1001177', 'http://www.wikidata.org/entity/Q1001204', 'http://www.wikidata.org/entity/Q1001225', 'http://www.wikidata.org/entity/Q1001226', 'http://www.wikidata.org/entity/Q1001229', 'http://www.wikidata.org/entity/Q100123', 'http://www.wikidata.org/entity/Q1001231', 'http://www.wikidata.org/entity/Q1001243', 'http://www.wikidata.org/entity/Q1001248', 'http://www.wikidata.org/entity/Q100125', 'http://www.wikidata.org/entity/Q1001259', 'http://www.wikidata.org/entity/Q1001267', 'http://www.wikidata.org/entity/Q1001269', 'http://www.wikidata.org/entity/Q1001279', 'http://www.wikidata.org/entity/Q100128', 'http://www.wikidata.org/entity/Q100129', 'http://www.wikidata.org/entity/Q1001298', 'http://www.wikidata.org/entity/Q10013', 'http://www.wikidata.org/entity/Q1001315', 'http://www.wikidata.org/entity/Q1001316', 'http://www.wikidata.org/entity/Q1001322', 'http://www.wikidata.org/entity/Q100133', 'http://www.wikidata.org/entity/Q1001331', 'http://www.wikidata.org/entity/Q1001333', 'http://www.wikidata.org/entity/Q1001339', 'http://www.wikidata.org/entity/Q100135', 'http://www.wikidata.org/entity/Q1001361', 'http://www.wikidata.org/entity/Q1001363', 'http://www.wikidata.org/entity/Q100137', 'http://www.wikidata.org/entity/Q100139411', 'http://www.wikidata.org/entity/Q10014', 'http://www.wikidata.org/entity/Q100140011', 'http://www.wikidata.org/entity/Q1001402', 'http://www.wikidata.org/entity/Q1001409', 'http://www.wikidata.org/entity/Q100141', 'http://www.wikidata.org/entity/Q1001416', 'http://www.wikidata.org/entity/Q100142861', 'http://www.wikidata.org/entity/Q100143', 'http://www.wikidata.org/entity/Q1001430', 'http://www.wikidata.org/entity/Q1001435', 'http://www.wikidata.org/entity/Q1001436', 'http://www.wikidata.org/entity/Q1001440', 'http://www.wikidata.org/entity/Q1001443', 'http://www.wikidata.org/entity/Q100144628', 'http://www.wikidata.org/entity/Q1001448', 'http://www.wikidata.org/entity/Q1001449', 'http://www.wikidata.org/entity/Q100145', 'http://www.wikidata.org/entity/Q1001456', 'http://www.wikidata.org/entity/Q1001458', 'http://www.wikidata.org/entity/Q1001461', 'http://www.wikidata.org/entity/Q1001463', 'http://www.wikidata.org/entity/Q1001465', 'http://www.wikidata.org/entity/Q1001466', 'http://www.wikidata.org/entity/Q100146630', 'http://www.wikidata.org/entity/Q100146695', 'http://www.wikidata.org/entity/Q1001468', 'http://www.wikidata.org/entity/Q1001470', 'http://www.wikidata.org/entity/Q1001473', 'http://www.wikidata.org/entity/Q1001474', 'http://www.wikidata.org/entity/Q1001478', 'http://www.wikidata.org/entity/Q1001483', 'http://www.wikidata.org/entity/Q1001485', 'http://www.wikidata.org/entity/Q1001488', 'http://www.wikidata.org/entity/Q1001489', 'http://www.wikidata.org/entity/Q100149', 'http://www.wikidata.org/entity/Q1001495', 'http://www.wikidata.org/entity/Q1001499', 'http://www.wikidata.org/entity/Q10015', 'http://www.wikidata.org/entity/Q1001501', 'http://www.wikidata.org/entity/Q100151', 'http://www.wikidata.org/entity/Q1001513', 'http://www.wikidata.org/entity/Q100151636', 'http://www.wikidata.org/entity/Q100151645', 'http://www.wikidata.org/entity/Q100151652', 'http://www.wikidata.org/entity/Q100151775', 'http://www.wikidata.org/entity/Q100151922', 'http://www.wikidata.org/entity/Q1001522', 'http://www.wikidata.org/entity/Q1001523', 'http://www.wikidata.org/entity/Q1001525', 'http://www.wikidata.org/entity/Q1001529', 'http://www.wikidata.org/entity/Q100153', 'http://www.wikidata.org/entity/Q1001533', 'http://www.wikidata.org/entity/Q1001535', 'http://www.wikidata.org/entity/Q1001537', 'http://www.wikidata.org/entity/Q100154017', 'http://www.wikidata.org/entity/Q100154038', 'http://www.wikidata.org/entity/Q1001541', 'http://www.wikidata.org/entity/Q1001544', 'http://www.wikidata.org/entity/Q1001547', 'http://www.wikidata.org/entity/Q100155', 'http://www.wikidata.org/entity/Q1001550', 'http://www.wikidata.org/entity/Q1001552', 'http://www.wikidata.org/entity/Q1001560', 'http://www.wikidata.org/entity/Q100156207', 'http://www.wikidata.org/entity/Q100156225', 'http://www.wikidata.org/entity/Q1001568', 'http://www.wikidata.org/entity/Q1001576', 'http://www.wikidata.org/entity/Q1001578', 'http://www.wikidata.org/entity/Q100158', 'http://www.wikidata.org/entity/Q1001581', 'http://www.wikidata.org/entity/Q1001582', 'http://www.wikidata.org/entity/Q1001590', 'http://www.wikidata.org/entity/Q1001591', 'http://www.wikidata.org/entity/Q100159600', 'http://www.wikidata.org/entity/Q1001598', 'http://www.wikidata.org/entity/Q10016', 'http://www.wikidata.org/entity/Q1001600', 'http://www.wikidata.org/entity/Q100161', 'http://www.wikidata.org/entity/Q1001614', 'http://www.wikidata.org/entity/Q1001619', 'http://www.wikidata.org/entity/Q100162', 'http://www.wikidata.org/entity/Q1001622', 'http://www.wikidata.org/entity/Q1001626', 'http://www.wikidata.org/entity/Q1001639', 'http://www.wikidata.org/entity/Q1001642', 'http://www.wikidata.org/entity/Q1001647', 'http://www.wikidata.org/entity/Q100165', 'http://www.wikidata.org/entity/Q1001654', 'http://www.wikidata.org/entity/Q1001665', 'http://www.wikidata.org/entity/Q100166789', 'http://www.wikidata.org/entity/Q100167', 'http://www.wikidata.org/entity/Q1001679', 'http://www.wikidata.org/entity/Q1001685', 'http://www.wikidata.org/entity/Q1001690', 'http://www.wikidata.org/entity/Q1001692', 'http://www.wikidata.org/entity/Q1001696', 'http://www.wikidata.org/entity/Q10017', 'http://www.wikidata.org/entity/Q100170', 'http://www.wikidata.org/entity/Q1001710', 'http://www.wikidata.org/entity/Q1001721', 'http://www.wikidata.org/entity/Q1001732', 'http://www.wikidata.org/entity/Q1001733', 'http://www.wikidata.org/entity/Q1001735', 'http://www.wikidata.org/entity/Q1001742', 'http://www.wikidata.org/entity/Q1001747', 'http://www.wikidata.org/entity/Q1001750', 'http://www.wikidata.org/entity/Q1001754', 'http://www.wikidata.org/entity/Q1001757', 'http://www.wikidata.org/entity/Q1001758', 'http://www.wikidata.org/entity/Q1001771', 'http://www.wikidata.org/entity/Q1001773', 'http://www.wikidata.org/entity/Q1001775', 'http://www.wikidata.org/entity/Q1001787', 'http://www.wikidata.org/entity/Q1001793', 'http://www.wikidata.org/entity/Q1001799', 'http://www.wikidata.org/entity/Q10018', 'http://www.wikidata.org/entity/Q1001803', 'http://www.wikidata.org/entity/Q1001809', 'http://www.wikidata.org/entity/Q1001811', 'http://www.wikidata.org/entity/Q1001817', 'http://www.wikidata.org/entity/Q1001820', 'http://www.wikidata.org/entity/Q1001828', 'http://www.wikidata.org/entity/Q1001844', 'http://www.wikidata.org/entity/Q1001852', 'http://www.wikidata.org/entity/Q1001853', 'http://www.wikidata.org/entity/Q1001857', 'http://www.wikidata.org/entity/Q1001858', 'http://www.wikidata.org/entity/Q1001878', 'http://www.wikidata.org/entity/Q100188', 'http://www.wikidata.org/entity/Q1001880', 'http://www.wikidata.org/entity/Q1001887', 'http://www.wikidata.org/entity/Q1001891', 'http://www.wikidata.org/entity/Q1001895', 'http://www.wikidata.org/entity/Q1001897', 'http://www.wikidata.org/entity/Q10019', 'http://www.wikidata.org/entity/Q1001901', 'http://www.wikidata.org/entity/Q1001905', 'http://www.wikidata.org/entity/Q1001908', 'http://www.wikidata.org/entity/Q1001914', 'http://www.wikidata.org/entity/Q100192', 'http://www.wikidata.org/entity/Q100193', 'http://www.wikidata.org/entity/Q1001941', 'http://www.wikidata.org/entity/Q1001942', 'http://www.wikidata.org/entity/Q1001945', 'http://www.wikidata.org/entity/Q100195', 'http://www.wikidata.org/entity/Q1001951', 'http://www.wikidata.org/entity/Q1001956', 'http://www.wikidata.org/entity/Q1001959', 'http://www.wikidata.org/entity/Q1001963', 'http://www.wikidata.org/entity/Q1001966', 'http://www.wikidata.org/entity/Q1001970', 'http://www.wikidata.org/entity/Q1001975', 'http://www.wikidata.org/entity/Q1001980', 'http://www.wikidata.org/entity/Q100198162', 'http://www.wikidata.org/entity/Q1001985', 'http://www.wikidata.org/entity/Q1001989', 'http://www.wikidata.org/entity/Q100199', 'http://www.wikidata.org/entity/Q1001990', 'http://www.wikidata.org/entity/Q1001995', 'http://www.wikidata.org/entity/Q1001999', 'http://www.wikidata.org/entity/Q10019995', 'http://www.wikidata.org/entity/Q10020', 'http://www.wikidata.org/entity/Q1002003', 'http://www.wikidata.org/entity/Q1002005', 'http://www.wikidata.org/entity/Q1002006', 'http://www.wikidata.org/entity/Q1002013', 'http://www.wikidata.org/entity/Q1002023', 'http://www.wikidata.org/entity/Q1002029', 'http://www.wikidata.org/entity/Q1002030', 'http://www.wikidata.org/entity/Q1002035', 'http://www.wikidata.org/entity/Q1002038', 'http://www.wikidata.org/entity/Q1002048', 'http://www.wikidata.org/entity/Q1002052', 'http://www.wikidata.org/entity/Q1002059', 'http://www.wikidata.org/entity/Q100206221', 'http://www.wikidata.org/entity/Q1002067', 'http://www.wikidata.org/entity/Q1002069', 'http://www.wikidata.org/entity/Q1002072', 'http://www.wikidata.org/entity/Q1002076', 'http://www.wikidata.org/entity/Q1002078', 'http://www.wikidata.org/entity/Q1002081', 'http://www.wikidata.org/entity/Q1002083', 'http://www.wikidata.org/entity/Q1002084', 'http://www.wikidata.org/entity/Q1002085', 'http://www.wikidata.org/entity/Q1002086', 'http://www.wikidata.org/entity/Q1002087', 'http://www.wikidata.org/entity/Q1002090', 'http://www.wikidata.org/entity/Q1002092', 'http://www.wikidata.org/entity/Q1002098', 'http://www.wikidata.org/entity/Q1002099', 'http://www.wikidata.org/entity/Q10021', 'http://www.wikidata.org/entity/Q1002103', 'http://www.wikidata.org/entity/Q1002104', 'http://www.wikidata.org/entity/Q1002105', 'http://www.wikidata.org/entity/Q1002109', 'http://www.wikidata.org/entity/Q1002110', 'http://www.wikidata.org/entity/Q1002117', 'http://www.wikidata.org/entity/Q1002118', 'http://www.wikidata.org/entity/Q1002122', 'http://www.wikidata.org/entity/Q1002130', 'http://www.wikidata.org/entity/Q1002140', 'http://www.wikidata.org/entity/Q1002144', 'http://www.wikidata.org/entity/Q1002149', 'http://www.wikidata.org/entity/Q1002172', 'http://www.wikidata.org/entity/Q1002175', 'http://www.wikidata.org/entity/Q1002183', 'http://www.wikidata.org/entity/Q1002187', 'http://www.wikidata.org/entity/Q1002188', 'http://www.wikidata.org/entity/Q1002189', 'http://www.wikidata.org/entity/Q1002192', 'http://www.wikidata.org/entity/Q1002198', 'http://www.wikidata.org/entity/Q10022', 'http://www.wikidata.org/entity/Q1002205', 'http://www.wikidata.org/entity/Q1002208', 'http://www.wikidata.org/entity/Q1002218', 'http://www.wikidata.org/entity/Q1002224', 'http://www.wikidata.org/entity/Q1002229', 'http://www.wikidata.org/entity/Q1002241', 'http://www.wikidata.org/entity/Q1002246', 'http://www.wikidata.org/entity/Q1002247', 'http://www.wikidata.org/entity/Q1002258', 'http://www.wikidata.org/entity/Q1002260', 'http://www.wikidata.org/entity/Q1002269', 'http://www.wikidata.org/entity/Q1002286', 'http://www.wikidata.org/entity/Q1002294', 'http://www.wikidata.org/entity/Q10023', 'http://www.wikidata.org/entity/Q1002306', 'http://www.wikidata.org/entity/Q100231102', 'http://www.wikidata.org/entity/Q100231137', 'http://www.wikidata.org/entity/Q1002315', 'http://www.wikidata.org/entity/Q1002326', 'http://www.wikidata.org/entity/Q100232987', 'http://www.wikidata.org/entity/Q100233709', 'http://www.wikidata.org/entity/Q100233728', 'http://www.wikidata.org/entity/Q100233798', 'http://www.wikidata.org/entity/Q100233800', 'http://www.wikidata.org/entity/Q100233816', 'http://www.wikidata.org/entity/Q1002340', 'http://www.wikidata.org/entity/Q100235191', 'http://www.wikidata.org/entity/Q100235265', 'http://www.wikidata.org/entity/Q1002355', 'http://www.wikidata.org/entity/Q100235777', 'http://www.wikidata.org/entity/Q1002388', 'http://www.wikidata.org/entity/Q1002394', 'http://www.wikidata.org/entity/Q10024', 'http://www.wikidata.org/entity/Q1002403', 'http://www.wikidata.org/entity/Q1002413', 'http://www.wikidata.org/entity/Q1002425', 'http://www.wikidata.org/entity/Q1002432', 'http://www.wikidata.org/entity/Q1002435', 'http://www.wikidata.org/entity/Q1002438', 'http://www.wikidata.org/entity/Q1002445', 'http://www.wikidata.org/entity/Q1002450', 'http://www.wikidata.org/entity/Q1002451', 'http://www.wikidata.org/entity/Q1002460', 'http://www.wikidata.org/entity/Q1002461', 'http://www.wikidata.org/entity/Q1002475', 'http://www.wikidata.org/entity/Q1002483', 'http://www.wikidata.org/entity/Q1002490', 'http://www.wikidata.org/entity/Q10025', 'http://www.wikidata.org/entity/Q1002506', 'http://www.wikidata.org/entity/Q100251468', 'http://www.wikidata.org/entity/Q100251471', 'http://www.wikidata.org/entity/Q100251473', 'http://www.wikidata.org/entity/Q1002515', 'http://www.wikidata.org/entity/Q100251722', 'http://www.wikidata.org/entity/Q1002518', 'http://www.wikidata.org/entity/Q100252163', 'http://www.wikidata.org/entity/Q100252196', 'http://www.wikidata.org/entity/Q100252227', 'http://www.wikidata.org/entity/Q100252231', 'http://www.wikidata.org/entity/Q100252279', 'http://www.wikidata.org/entity/Q100252409', 'http://www.wikidata.org/entity/Q1002525', 'http://www.wikidata.org/entity/Q100252652', 'http://www.wikidata.org/entity/Q1002537', 'http://www.wikidata.org/entity/Q1002552', 'http://www.wikidata.org/entity/Q1002557', 'http://www.wikidata.org/entity/Q1002560', 'http://www.wikidata.org/entity/Q100256350', 'http://www.wikidata.org/entity/Q1002571', 'http://www.wikidata.org/entity/Q1002577', 'http://www.wikidata.org/entity/Q1002583', 'http://www.wikidata.org/entity/Q10026', 'http://www.wikidata.org/entity/Q1002601', 'http://www.wikidata.org/entity/Q1002604', 'http://www.wikidata.org/entity/Q1002607', 'http://www.wikidata.org/entity/Q1002615', 'http://www.wikidata.org/entity/Q100261614', 'http://www.wikidata.org/entity/Q1002623', 'http://www.wikidata.org/entity/Q1002629', 'http://www.wikidata.org/entity/Q1002631', 'http://www.wikidata.org/entity/Q1002632', 'http://www.wikidata.org/entity/Q1002633', 'http://www.wikidata.org/entity/Q1002636', 'http://www.wikidata.org/entity/Q1002637', 'http://www.wikidata.org/entity/Q1002638', 'http://www.wikidata.org/entity/Q1002640', 'http://www.wikidata.org/entity/Q1002641', 'http://www.wikidata.org/entity/Q1002644', 'http://www.wikidata.org/entity/Q1002645', 'http://www.wikidata.org/entity/Q1002650', 'http://www.wikidata.org/entity/Q1002651', 'http://www.wikidata.org/entity/Q1002652', 'http://www.wikidata.org/entity/Q100265374', 'http://www.wikidata.org/entity/Q1002654', 'http://www.wikidata.org/entity/Q1002655', 'http://www.wikidata.org/entity/Q1002663', 'http://www.wikidata.org/entity/Q1002667', 'http://www.wikidata.org/entity/Q1002669', 'http://www.wikidata.org/entity/Q1002674', 'http://www.wikidata.org/entity/Q1002682', 'http://www.wikidata.org/entity/Q100268405', 'http://www.wikidata.org/entity/Q100268653', 'http://www.wikidata.org/entity/Q1002688', 'http://www.wikidata.org/entity/Q100268954', 'http://www.wikidata.org/entity/Q100269160', 'http://www.wikidata.org/entity/Q100269205', 'http://www.wikidata.org/entity/Q1002693', 'http://www.wikidata.org/entity/Q100269321', 'http://www.wikidata.org/entity/Q10027', 'http://www.wikidata.org/entity/Q1002706', 'http://www.wikidata.org/entity/Q1002722', 'http://www.wikidata.org/entity/Q1002725', 'http://www.wikidata.org/entity/Q1002742', 'http://www.wikidata.org/entity/Q1002744', 'http://www.wikidata.org/entity/Q1002750', 'http://www.wikidata.org/entity/Q100275047', 'http://www.wikidata.org/entity/Q1002751', 'http://www.wikidata.org/entity/Q1002760', 'http://www.wikidata.org/entity/Q100276073', 'http://www.wikidata.org/entity/Q1002762', 'http://www.wikidata.org/entity/Q100276537', 'http://www.wikidata.org/entity/Q1002766', 'http://www.wikidata.org/entity/Q100276777', 'http://www.wikidata.org/entity/Q100276816', 'http://www.wikidata.org/entity/Q100276863', 'http://www.wikidata.org/entity/Q100277236', 'http://www.wikidata.org/entity/Q1002776', 'http://www.wikidata.org/entity/Q100277618', 'http://www.wikidata.org/entity/Q100278795', 'http://www.wikidata.org/entity/Q1002799', 'http://www.wikidata.org/entity/Q1002807', 'http://www.wikidata.org/entity/Q1002818', 'http://www.wikidata.org/entity/Q1002841', 'http://www.wikidata.org/entity/Q1002845', 'http://www.wikidata.org/entity/Q1002849', 'http://www.wikidata.org/entity/Q1002856', 'http://www.wikidata.org/entity/Q1002863', 'http://www.wikidata.org/entity/Q1002875', 'http://www.wikidata.org/entity/Q100288664', 'http://www.wikidata.org/entity/Q1002896', 'http://www.wikidata.org/entity/Q1002900', 'http://www.wikidata.org/entity/Q1002906', 'http://www.wikidata.org/entity/Q1002908', 'http://www.wikidata.org/entity/Q1002915', 'http://www.wikidata.org/entity/Q1002926', 'http://www.wikidata.org/entity/Q100293722', 'http://www.wikidata.org/entity/Q1002941', 'http://www.wikidata.org/entity/Q1002949', 'http://www.wikidata.org/entity/Q1002959', 'http://www.wikidata.org/entity/Q1002960', 'http://www.wikidata.org/entity/Q1002961', 'http://www.wikidata.org/entity/Q1002967', 'http://www.wikidata.org/entity/Q1002970', 'http://www.wikidata.org/entity/Q1002973', 'http://www.wikidata.org/entity/Q1002974', 'http://www.wikidata.org/entity/Q100297559', 'http://www.wikidata.org/entity/Q1002977', 'http://www.wikidata.org/entity/Q1002981', 'http://www.wikidata.org/entity/Q100298323', 'http://www.wikidata.org/entity/Q1002985', 'http://www.wikidata.org/entity/Q1002989', 'http://www.wikidata.org/entity/Q1002990', 'http://www.wikidata.org/entity/Q1002995', 'http://www.wikidata.org/entity/Q1003000', 'http://www.wikidata.org/entity/Q1003001', 'http://www.wikidata.org/entity/Q1003002', 'http://www.wikidata.org/entity/Q1003007', 'http://www.wikidata.org/entity/Q1003011', 'http://www.wikidata.org/entity/Q1003016', 'http://www.wikidata.org/entity/Q1003017', 'http://www.wikidata.org/entity/Q1003024', 'http://www.wikidata.org/entity/Q1003032', 'http://www.wikidata.org/entity/Q1003033', 'http://www.wikidata.org/entity/Q1003035', 'http://www.wikidata.org/entity/Q1003036', 'http://www.wikidata.org/entity/Q1003060', 'http://www.wikidata.org/entity/Q1003071', 'http://www.wikidata.org/entity/Q1003074', 'http://www.wikidata.org/entity/Q1003082', 'http://www.wikidata.org/entity/Q1003093', 'http://www.wikidata.org/entity/Q1003096', 'http://www.wikidata.org/entity/Q1003105', 'http://www.wikidata.org/entity/Q1003109', 'http://www.wikidata.org/entity/Q1003112', 'http://www.wikidata.org/entity/Q1003125', 'http://www.wikidata.org/entity/Q1003126', 'http://www.wikidata.org/entity/Q100313456', 'http://www.wikidata.org/entity/Q1003137', 'http://www.wikidata.org/entity/Q1003142', 'http://www.wikidata.org/entity/Q1003143', 'http://www.wikidata.org/entity/Q1003150', 'http://www.wikidata.org/entity/Q1003151', 'http://www.wikidata.org/entity/Q1003158', 'http://www.wikidata.org/entity/Q100316103', 'http://www.wikidata.org/entity/Q1003178', 'http://www.wikidata.org/entity/Q1003179', 'http://www.wikidata.org/entity/Q1003182', 'http://www.wikidata.org/entity/Q1003187', 'http://www.wikidata.org/entity/Q1003188', 'http://www.wikidata.org/entity/Q100319855', 'http://www.wikidata.org/entity/Q100319962', 'http://www.wikidata.org/entity/Q10032', 'http://www.wikidata.org/entity/Q1003204', 'http://www.wikidata.org/entity/Q1003209', 'http://www.wikidata.org/entity/Q1003219', 'http://www.wikidata.org/entity/Q100323031', 'http://www.wikidata.org/entity/Q1003231', 'http://www.wikidata.org/entity/Q100323252', 'http://www.wikidata.org/entity/Q100323291', 'http://www.wikidata.org/entity/Q100323372', 'http://www.wikidata.org/entity/Q1003237', 'http://www.wikidata.org/entity/Q1003239', 'http://www.wikidata.org/entity/Q1003240', 'http://www.wikidata.org/entity/Q1003241', 'http://www.wikidata.org/entity/Q100324238', 'http://www.wikidata.org/entity/Q1003244', 'http://www.wikidata.org/entity/Q1003246', 'http://www.wikidata.org/entity/Q1003250', 'http://www.wikidata.org/entity/Q100325111', 'http://www.wikidata.org/entity/Q1003252', 'http://www.wikidata.org/entity/Q100325205', 'http://www.wikidata.org/entity/Q100325245', 'http://www.wikidata.org/entity/Q1003255', 'http://www.wikidata.org/entity/Q1003256', 'http://www.wikidata.org/entity/Q100326892', 'http://www.wikidata.org/entity/Q1003269', 'http://www.wikidata.org/entity/Q1003282', 'http://www.wikidata.org/entity/Q100328359', 'http://www.wikidata.org/entity/Q100328384', 'http://www.wikidata.org/entity/Q100328390', 'http://www.wikidata.org/entity/Q100328396', 'http://www.wikidata.org/entity/Q1003284', 'http://www.wikidata.org/entity/Q100328401', 'http://www.wikidata.org/entity/Q100328408', 'http://www.wikidata.org/entity/Q100328413', 'http://www.wikidata.org/entity/Q100329099', 'http://www.wikidata.org/entity/Q1003301', 'http://www.wikidata.org/entity/Q1003302', 'http://www.wikidata.org/entity/Q1003316', 'http://www.wikidata.org/entity/Q1003317', 'http://www.wikidata.org/entity/Q1003318', 'http://www.wikidata.org/entity/Q1003319', 'http://www.wikidata.org/entity/Q1003321', 'http://www.wikidata.org/entity/Q100332176', 'http://www.wikidata.org/entity/Q1003324', 'http://www.wikidata.org/entity/Q1003325', 'http://www.wikidata.org/entity/Q1003329', 'http://www.wikidata.org/entity/Q1003331', 'http://www.wikidata.org/entity/Q1003332', 'http://www.wikidata.org/entity/Q1003333', 'http://www.wikidata.org/entity/Q1003334', 'http://www.wikidata.org/entity/Q1003336', 'http://www.wikidata.org/entity/Q1003340', 'http://www.wikidata.org/entity/Q1003343', 'http://www.wikidata.org/entity/Q1003346', 'http://www.wikidata.org/entity/Q1003348', 'http://www.wikidata.org/entity/Q1003349', 'http://www.wikidata.org/entity/Q1003350', 'http://www.wikidata.org/entity/Q1003351', 'http://www.wikidata.org/entity/Q1003352', 'http://www.wikidata.org/entity/Q1003355', 'http://www.wikidata.org/entity/Q1003358', 'http://www.wikidata.org/entity/Q1003360', 'http://www.wikidata.org/entity/Q1003362', 'http://www.wikidata.org/entity/Q1003368', 'http://www.wikidata.org/entity/Q1003369', 'http://www.wikidata.org/entity/Q1003370', 'http://www.wikidata.org/entity/Q1003371', 'http://www.wikidata.org/entity/Q1003375', 'http://www.wikidata.org/entity/Q1003376', 'http://www.wikidata.org/entity/Q1003378', 'http://www.wikidata.org/entity/Q1003379', 'http://www.wikidata.org/entity/Q1003382', 'http://www.wikidata.org/entity/Q1003384', 'http://www.wikidata.org/entity/Q1003389', 'http://www.wikidata.org/entity/Q1</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q138578']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q138578']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,37 +998,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>What is the net income of Apple?</t>
+          <t>how much is the elevation of Düsseldorf Airport ?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['147']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['147']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,37 +1058,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+          <t>['180']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100', 'http://www.wikidata.org/entity/Q1000918', 'http://www.wikidata.org/entity/Q10054424', 'http://www.wikidata.org/entity/Q100707303', 'http://www.wikidata.org/entity/Q100726345', 'http://www.wikidata.org/entity/Q10086', 'http://www.wikidata.org/entity/Q1011016', 'http://www.wikidata.org/entity/Q1011073', 'http://www.wikidata.org/entity/Q1011125', 'http://www.wikidata.org/entity/Q101186473', 'http://www.wikidata.org/entity/Q10126', 'http://www.wikidata.org/entity/Q1012840', 'http://www.wikidata.org/entity/Q1012971', 'http://www.wikidata.org/entity/Q1013421', 'http://www.wikidata.org/entity/Q101418', 'http://www.wikidata.org/entity/Q1014248', 'http://www.wikidata.org/entity/Q101583', 'http://www.wikidata.org/entity/Q101625', 'http://www.wikidata.org/entity/Q1016908', 'http://www.wikidata.org/entity/Q1017', 'http://www.wikidata.org/entity/Q1017178', 'http://www.wikidata.org/entity/Q1017223', 'http://www.wikidata.org/entity/Q1018150', 'http://www.wikidata.org/entity/Q1019166', 'http://www.wikidata.org/entity/Q1019438', 'http://www.wikidata.org/entity/Q101948176', 'http://www.wikidata.org/entity/Q1020914', 'http://www.wikidata.org/entity/Q1021', 'http://www.wikidata.org/entity/Q1021154', 'http://www.wikidata.org/entity/Q102158', 'http://www.wikidata.org/entity/Q1021638', 'http://www.wikidata.org/entity/Q1021662', 'http://www.wikidata.org/entity/Q1022', 'http://www.wikidata.org/entity/Q102217', 'http://www.wikidata.org/entity/Q1023301', 'http://www.wikidata.org/entity/Q1023720', 'http://www.wikidata.org/entity/Q1023721', 'http://www.wikidata.org/entity/Q1023722', 'http://www.wikidata.org/entity/Q1024647', 'http://www.wikidata.org/entity/Q1025013', 'http://www.wikidata.org/entity/Q1025459', 'http://www.wikidata.org/entity/Q1025654', 'http://www.wikidata.org/entity/Q1025918', 'http://www.wikidata.org/entity/Q1026347', 'http://www.wikidata.org/entity/Q10282', 'http://www.wikidata.org/entity/Q10313', 'http://www.wikidata.org/entity/Q1031919', 'http://www.wikidata.org/entity/Q103244', 'http://www.wikidata.org/entity/Q103305', 'http://www.wikidata.org/entity/Q1040', 'http://www.wikidata.org/entity/Q104244415', 'http://www.wikidata.org/entity/Q104338053', 'http://www.wikidata.org/entity/Q104374', 'http://www.wikidata.org/entity/Q10439273', 'http://www.wikidata.org/entity/Q1044072', 'http://www.wikidata.org/entity/Q10446696', 'http://www.wikidata.org/entity/Q104703', 'http://www.wikidata.org/entity/Q104720', 'http://www.wikidata.org/entity/Q104725', 'http://www.wikidata.org/entity/Q104731', 'http://www.wikidata.org/entity/Q104764', 'http://www.wikidata.org/entity/Q1049714', 'http://www.wikidata.org/entity/Q1049884', 'http://www.wikidata.org/entity/Q105076255', 'http://www.wikidata.org/entity/Q105076326', 'http://www.wikidata.org/entity/Q105284', 'http://www.wikidata.org/entity/Q1053498', 'http://www.wikidata.org/entity/Q1053527', 'http://www.wikidata.org/entity/Q10547291', 'http://www.wikidata.org/entity/Q10567415', 'http://www.wikidata.org/entity/Q105699374', 'http://www.wikidata.org/entity/Q1060779', 'http://www.wikidata.org/entity/Q1061338', 'http://www.wikidata.org/entity/Q1061665', 'http://www.wikidata.org/entity/Q1063054', 'http://www.wikidata.org/entity/Q106510487', 'http://www.wikidata.org/entity/Q10686', 'http://www.wikidata.org/entity/Q106869611', 'http://www.wikidata.org/entity/Q10687843', 'http://www.wikidata.org/entity/Q10690', 'http://www.wikidata.org/entity/Q1069802', 'http://www.wikidata.org/entity/Q1070000', 'http://www.wikidata.org/entity/Q10704', 'http://www.wikidata.org/entity/Q10717', 'http://www.wikidata.org/entity/Q107217791', 'http://www.wikidata.org/entity/Q107370', 'http://www.wikidata.org/entity/Q1074347', 'http://www.wikidata.org/entity/Q1075455', 'http://www.wikidata.org/entity/Q1075566', 'http://www.wikidata.org/entity/Q107585355', 'http://www.wikidata.org/entity/Q107665069', 'http://www.wikidata.org/entity/Q107722146', 'http://www.wikidata.org/entity/Q107740121', 'http://www.wikidata.org/entity/Q107751115', 'http://www.wikidata.org/entity/Q107972586', 'http://www.wikidata.org/entity/Q107975417', 'http://www.wikidata.org/entity/Q107996359', 'http://www.wikidata.org/entity/Q1081229', 'http://www.wikidata.org/entity/Q108155', 'http://www.wikidata.org/entity/Q10825605', 'http://www.wikidata.org/entity/Q10825974', 'http://www.wikidata.org/entity/Q1083', 'http://www.wikidata.org/entity/Q108395314', 'http://www.wikidata.org/entity/Q108395463', 'http://www.wikidata.org/entity/Q10840768', 'http://www.wikidata.org/entity/Q108412362', 'http://www.wikidata.org/entity/Q1085', 'http://www.wikidata.org/entity/Q108527376', 'http://www.wikidata.org/entity/Q10877939', 'http://www.wikidata.org/entity/Q10885263', 'http://www.wikidata.org/entity/Q10906766', 'http://www.wikidata.org/entity/Q109079', 'http://www.wikidata.org/entity/Q10923028', 'http://www.wikidata.org/entity/Q10925734', 'http://www.wikidata.org/entity/Q1093156', 'http://www.wikidata.org/entity/Q10934176', 'http://www.wikidata.org/entity/Q10939227', 'http://www.wikidata.org/entity/Q10942824', 'http://www.wikidata.org/entity/Q11065738', 'http://www.wikidata.org/entity/Q110800198', 'http://www.wikidata.org/entity/Q110961720', 'http://www.wikidata.org/entity/Q110985194', 'http://www.wikidata.org/entity/Q11105411', 'http://www.wikidata.org/entity/Q111205', 'http://www.wikidata.org/entity/Q11122735', 'http://www.wikidata.org/entity/Q11125', 'http://www.wikidata.org/entity/Q11133430', 'http://www.wikidata.org/entity/Q111427921', 'http://www.wikidata.org/entity/Q11160769', 'http://www.wikidata.org/entity/Q111705', 'http://www.wikidata.org/entity/Q111901161', 'http://www.wikidata.org/entity/Q111905239', 'http://www.wikidata.org/entity/Q11194', 'http://www.wikidata.org/entity/Q111953395', 'http://www.wikidata.org/entity/Q112151438', 'http://www.wikidata.org/entity/Q11272095', 'http://www.wikidata.org/entity/Q112813', 'http://www.wikidata.org/entity/Q11285', 'http://www.wikidata.org/entity/Q1131299', 'http://www.wikidata.org/entity/Q113410893', 'http://www.wikidata.org/entity/Q1134454', 'http://www.wikidata.org/entity/Q1136681', 'http://www.wikidata.org/entity/Q113676410', 'http://www.wikidata.org/entity/Q1141068', 'http://www.wikidata.org/entity/Q1149666', 'http://www.wikidata.org/entity/Q11506', 'http://www.wikidata.org/entity/Q1153296', 'http://www.wikidata.org/entity/Q1156', 'http://www.wikidata.org/entity/Q115738657', 'http://www.wikidata.org/entity/Q115768043', 'http://www.wikidata.org/entity/Q11592', 'http://www.wikidata.org/entity/Q116158888', 'http://www.wikidata.org/entity/Q116170766', 'http://www.wikidata.org/entity/Q11627011', 'http://www.wikidata.org/entity/Q116341', 'http://www.wikidata.org/entity/Q116522172', 'http://www.wikidata.org/entity/Q1171', 'http://www.wikidata.org/entity/Q117181', 'http://www.wikidata.org/entity/Q1171924', 'http://www.wikidata.org/entity/Q11720', 'http://www.wikidata.org/entity/Q11739', 'http://www.wikidata.org/entity/Q117709675', 'http://www.wikidata.org/entity/Q118367456', 'http://www.wikidata.org/entity/Q1184661', 'http://www.wikidata.org/entity/Q1189121', 'http://www.wikidata.org/entity/Q1190403', 'http://www.wikidata.org/entity/Q11907651', 'http://www.wikidata.org/entity/Q11910', 'http://www.wikidata.org/entity/Q119111334', 'http://www.wikidata.org/entity/Q119140', 'http://www.wikidata.org/entity/Q11930644', 'http://www.wikidata.org/entity/Q1194737', 'http://www.wikidata.org/entity/Q11947752', 'http://www.wikidata.org/entity/Q11974', 'http://www.wikidata.org/entity/Q1197771', 'http://www.wikidata.org/entity/Q1198957', 'http://www.wikidata.org/entity/Q1199713', 'http://www.wikidata.org/entity/Q120173708', 'http://www.wikidata.org/entity/Q120599643', 'http://www.wikidata.org/entity/Q12062', 'http://www.wikidata.org/entity/Q1206246', 'http://www.wikidata.org/entity/Q120652380', 'http://www.wikidata.org/entity/Q120658944', 'http://www.wikidata.org/entity/Q120752088', 'http://www.wikidata.org/entity/Q1207735', 'http://www.wikidata.org/entity/Q1207746', 'http://www.wikidata.org/entity/Q120791727', 'http://www.wikidata.org/entity/Q12079910', 'http://www.wikidata.org/entity/Q120969970', 'http://www.wikidata.org/entity/Q121157', 'http://www.wikidata.org/entity/Q1218', 'http://www.wikidata.org/entity/Q12191', 'http://www.wikidata.org/entity/Q12191403', 'http://www.wikidata.org/entity/Q12225', 'http://www.wikidata.org/entity/Q1223508', 'http://www.wikidata.org/entity/Q12245', 'http://www.wikidata.org/entity/Q12247256', 'http://www.wikidata.org/entity/Q122803', 'http://www.wikidata.org/entity/Q1232016', 'http://www.wikidata.org/entity/Q1233029', 'http://www.wikidata.org/entity/Q123348542', 'http://www.wikidata.org/entity/Q123436812', 'http://www.wikidata.org/entity/Q123566450', 'http://www.wikidata.org/entity/Q123576086', 'http://www.wikidata.org/entity/Q123667150', 'http://www.wikidata.org/entity/Q12374162', 'http://www.wikidata.org/entity/Q123758667', 'http://www.wikidata.org/entity/Q123996278', 'http://www.wikidata.org/entity/Q124057382', 'http://www.wikidata.org/entity/Q124335771', 'http://www.wikidata.org/entity/Q1243582', 'http://www.wikidata.org/entity/Q1247214', 'http://www.wikidata.org/entity/Q12489692', 'http://www.wikidata.org/entity/Q12489930', 'http://www.wikidata.org/entity/Q1249153', 'http://www.wikidata.org/entity/Q12505828', 'http://www.wikidata.org/entity/Q125121111', 'http://www.wikidata.org/entity/Q12518016', 'http://www.wikidata.org/entity/Q12518780', 'http://www.wikidata.org/entity/Q1257589', 'http://www.wikidata.org/entity/Q1258998', 'http://www.wikidata.org/entity/Q12593333', 'http://www.wikidata.org/entity/Q126084', 'http://www.wikidata.org/entity/Q126148', 'http://www.wikidata.org/entity/Q126321', 'http://www.wikidata.org/entity/Q12690', 'http://www.wikidata.org/entity/Q126909457', 'http://www.wikidata.org/entity/Q127063', 'http://www.wikidata.org/entity/Q1274372', 'http://www.wikidata.org/entity/Q127689853', 'http://www.wikidata.org/entity/Q127776446', 'http://www.wikidata.org/entity/Q127787077', 'http://www.wikidata.org/entity/Q127849521', 'http://www.wikidata.org/entity/Q1280770', 'http://www.wikidata.org/entity/Q128089', 'http://www.wikidata.org/entity/Q12829733', 'http://www.wikidata.org/entity/Q128678749', 'http://www.wikidata.org/entity/Q1289', 'http://www.wikidata.org/entity/Q129072', 'http://www.wikidata.org/entity/Q1291235', 'http://www.wikidata.org/entity/Q12919', 'http://www.wikidata.org/entity/Q129352', 'http://www.wikidata.org/entity/Q129430454', 'http://www.wikidata.org/entity/Q1296393', 'http://www.wikidata.org/entity/Q12994', 'http://www.wikidata.org/entity/Q130254', 'http://www.wikidata.org/entity/Q130391', 'http://www.wikidata.org/entity/Q13049257', 'http://www.wikidata.org/entity/Q130800', 'http://www.wikidata.org/entity/Q1309531', 'http://www.wikidata.org/entity/Q131127', 'http://www.wikidata.org/entity/Q131233', 'http://www.wikidata.org/entity/Q131243', 'http://www.wikidata.org/entity/Q131290', 'http://www.wikidata.org/entity/Q13134', 'http://www.wikidata.org/entity/Q131350', 'http://www.wikidata.org/entity/Q131429', 'http://www.wikidata.org/entity/Q131662', 'http://www.wikidata.org/entity/Q131694', 'http://www.wikidata.org/entity/Q132572', 'http://www.wikidata.org/entity/Q132671', 'http://www.wikidata.org/entity/Q132679', 'http://www.wikidata.org/entity/Q132754', 'http://www.wikidata.org/entity/Q132830', 'http://www.wikidata.org/entity/Q132931', 'http://www.wikidata.org/entity/Q13298', 'http://www.wikidata.org/entity/Q133010', 'http://www.wikidata.org/entity/Q1330294', 'http://www.wikidata.org/entity/Q1330939', 'http://www.wikidata.org/entity/Q1335', 'http://www.wikidata.org/entity/Q13362', 'http://www.wikidata.org/entity/Q13364', 'http://www.wikidata.org/entity/Q13367', 'http://www.wikidata.org/entity/Q13369', 'http://www.wikidata.org/entity/Q13370', 'http://www.wikidata.org/entity/Q13373', 'http://www.wikidata.org/entity/Q13375', 'http://www.wikidata.org/entity/Q13379', 'http://www.wikidata.org/entity/Q134279', 'http://www.wikidata.org/entity/Q134287', 'http://www.wikidata.org/entity/Q13433', 'http://www.wikidata.org/entity/Q134698', 'http://www.wikidata.org/entity/Q134703', 'http://www.wikidata.org/entity/Q1348', 'http://www.wikidata.org/entity/Q1351318', 'http://www.wikidata.org/entity/Q1352', 'http://www.wikidata.org/entity/Q1353', 'http://www.wikidata.org/entity/Q1354', 'http://www.wikidata.org/entity/Q135482', 'http://www.wikidata.org/entity/Q1355', 'http://www.wikidata.org/entity/Q135549', 'http://www.wikidata.org/entity/Q1361', 'http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q13670', 'http://www.wikidata.org/entity/Q13695', 'http://www.wikidata.org/entity/Q137203', 'http://www.wikidata.org/entity/Q137271', 'http://www.wikidata.org/entity/Q13735108', 'http://www.wikidata.org/entity/Q1374364', 'http://www.wikidata.org/entity/Q1380435', 'http://www.wikidata.org/entity/Q139242', 'http://www.wikidata.org/entity/Q13972', 'http://www.wikidata.org/entity/Q140304', 'http://www.wikidata.org/entity/Q140631', 'http://www.wikidata.org/entity/Q1410', 'http://www.wikidata.org/entity/Q14155', 'http://www.wikidata.org/entity/Q14274', 'http://www.wikidata.org/entity/Q142996', 'http://www.wikidata.org/entity/Q14314', 'http://www.wikidata.org/entity/Q14317', 'http://www.wikidata.org/entity/Q14318', 'http://www.wikidata.org/entity/Q14328', 'http://www.wikidata.org/entity/Q14329433', 'http://www.wikidata.org/entity/Q143376', 'http://www.wikidata.org/entity/Q1435', 'http://www.wikidata.org/entity/Q1435754', 'http://www.wikidata.org/entity/Q1449', 'http://www.wikidata.org/entity/Q145457', 'http://www.wikidata.org/entity/Q145799', 'http://www.wikidata.org/entity/Q145810', 'http://www.wikidata.org/entity/Q1461', 'http://www.wikidata.org/entity/Q146450', 'http://www.wikidata.org/entity/Q146469', 'http://www.wikidata.org/entity/Q1467', 'http://www.wikidata.org/entity/Q146820', 'http://www.wikidata.org/entity/Q147089', 'http://www.wikidata.org/entity/Q147548', 'http://www.wikidata.org/entity/Q14773', 'http://www.wikidata.org/entity/Q147738', 'http://www.wikidata.org/entity/Q147756', 'http://www.wikidata.org/entity/Q1479', 'http://www.wikidata.org/entity/Q14815', 'http://www.wikidata.org/entity/Q14821', 'http://www.wikidata.org/entity/Q14859', 'http://www.wikidata.org/entity/Q1486', 'http://www.wikidata.org/entity/Q1489', 'http://www.wikidata.org/entity/Q148947', 'http://www.wikidata.org/entity/Q1490', 'http://www.wikidata.org/entity/Q149016', 'http://www.wikidata.org/entity/Q1491', 'http://www.wikidata.org/entity/Q1492', 'http://www.wikidata.org/entity/Q14938', 'http://www.wikidata.org/entity/Q14960', 'http://www.wikidata.org/entity/Q1501940', 'http://www.wikidata.org/entity/Q1504476', 'http://www.wikidata.org/entity/Q15076', 'http://www.wikidata.org/entity/Q150996', 'http://www.wikidata.org/entity/Q15141230', 'http://www.wikidata.org/entity/Q1518300', 'http://www.wikidata.org/entity/Q1519', 'http://www.wikidata.org/entity/Q1520', 'http://www.wikidata.org/entity/Q15217719', 'http://www.wikidata.org/entity/Q1524', 'http://www.wikidata.org/entity/Q1530', 'http://www.wikidata.org/entity/Q1533', 'http://www.wikidata.org/entity/Q154748', 'http://www.wikidata.org/entity/Q1555', 'http://www.wikidata.org/entity/Q155569', 'http://www.wikidata.org/entity/Q155915', 'http://www.wikidata.org/entity/Q155984', 'http://www.wikidata.org/entity/Q156080', 'http://www.wikidata.org/entity/Q156090', 'http://www.wikidata.org/entity/Q1563', 'http://www.wikidata.org/entity/Q156711', 'http://www.wikidata.org/entity/Q156726', 'http://www.wikidata.org/entity/Q156732', 'http://www.wikidata.org/entity/Q156739', 'http://www.wikidata.org/entity/Q156743', 'http://www.wikidata.org/entity/Q156747', 'http://www.wikidata.org/entity/Q156752', 'http://www.wikidata.org/entity/Q15695', 'http://www.wikidata.org/entity/Q15696', 'http://www.wikidata.org/entity/Q15699', 'http://www.wikidata.org/entity/Q157035', 'http://www.wikidata.org/entity/Q157053', 'http://www.wikidata.org/entity/Q15757', 'http://www.wikidata.org/entity/Q157598', 'http://www.wikidata.org/entity/Q1577053', 'http://www.wikidata.org/entity/Q157725', 'http://www.wikidata.org/entity/Q157800', 'http://www.wikidata.org/entity/Q157824', 'http://www.wikidata.org/entity/Q157835', 'http://www.wikidata.org/entity/Q157856', 'http://www.wikidata.org/entity/Q158119', 'http://www.wikidata.org/entity/Q158216', 'http://www.wikidata.org/entity/Q1583842', 'http://www.wikidata.org/entity/Q158604', 'http://www.wikidata.org/entity/Q158775', 'http://www.wikidata.org/entity/Q158903', 'http://www.wikidata.org/entity/Q15903812', 'http://www.wikidata.org/entity/Q15912502', 'http://www.wikidata.org/entity/Q15921459', 'http://www.wikidata.org/entity/Q15924011', 'http://www.wikidata.org/entity/Q15927358', 'http://www.wikidata.org/entity/Q15935383', 'http://www.wikidata.org/entity/Q15936775', 'http://www.wikidata.org/entity/Q15940691', 'http://www.wikidata.org/entity/Q15976', 'http://www.wikidata.org/entity/Q159818', 'http://www.wikidata.org/entity/Q16024', 'http://www.wikidata.org/entity/Q16045', 'http://www.wikidata.org/entity/Q160544', 'http://www.wikidata.org/entity/Q160750', 'http://www.wikidata.org/entity/Q16078002', 'http://www.wikidata.org/entity/Q160927', 'http://www.wikidata.org/entity/Q1611788', 'http://www.wikidata.org/entity/Q1617666', 'http://www.wikidata.org/entity/Q161980', 'http://www.wikidata.org/entity/Q16216319', 'http://www.wikidata.org/entity/Q163108', 'http://www.wikidata.org/entity/Q1632006', 'http://www.wikidata.org/entity/Q16333', 'http://www.wikidata.org/entity/Q163490', 'http://www.wikidata.org/entity/Q1635867', 'http://www.wikidata.org/entity/Q16365061', 'http://www.wikidata.org/entity/Q16373727', 'http://www.wikidata.org/entity/Q1638441', 'http://www.wikidata.org/entity/Q1647', 'http://www.wikidata.org/entity/Q165090', 'http://www.wikidata.org/entity/Q16510368', 'http://www.wikidata.org/entity/Q16510372', 'http://www.wikidata.org/entity/Q165204', 'http://www.wikidata.org/entity/Q165341', 'http://www.wikidata.org/entity/Q16554', 'http://www.wikidata.org/entity/Q16555', 'http://www.wikidata.org/entity/Q16559', 'http://www.wikidata.org/entity/Q16567', 'http://www.wikidata.org/entity/Q165676', 'http://www.wikidata.org/entity/Q16572', 'http://www.wikidata.org/entity/Q165841', 'http://www.wikidata.org/entity/Q16656266', 'http://www.wikidata.org/entity/Q16666', 'http://www.wikidata.org/entity/Q167024', 'http://www.wikidata.org/entity/Q167166', 'http://www.wikidata.org/entity/Q167394', 'http://www.wikidata.org/entity/Q167551', 'http://www.wikidata.org/entity/Q167715', 'http://www.wikidata.org/entity/Q168225', 'http://www.wikidata.org/entity/Q168376', 'http://www.wikidata.org/entity/Q168652', 'http://www.wikidata.org/entity/Q16869', 'http://www.wikidata.org/entity/Q168843', 'http://www.wikidata.org/entity/Q168888', 'http://www.wikidata.org/entity/Q168954', 'http://www.wikidata.org/entity/Q169310', 'http://www.wikidata.org/entity/Q170047', 'http://www.wikidata.org/entity/Q170062', 'http://www.wikidata.org/entity/Q170115', 'http://www.wikidata.org/entity/Q17026198', 'http://www.wikidata.org/entity/Q170263', 'http://www.wikidata.org/entity/Q170322', 'http://www.wikidata.org/entity/Q170482', 'http://www.wikidata.org/entity/Q170521', 'http://www.wikidata.org/entity/Q170532', 'http://www.wikidata.org/entity/Q1707', 'http://www.wikidata.org/entity/Q1709', 'http://www.wikidata.org/entity/Q170903', 'http://www.wikidata.org/entity/Q1709553', 'http://www.wikidata.org/entity/Q1711', 'http://www.wikidata.org/entity/Q171353', 'http://www.wikidata.org/entity/Q1715', 'http://www.wikidata.org/entity/Q17151', 'http://www.wikidata.org/entity/Q171632', 'http://www.wikidata.org/entity/Q171771', 'http://www.wikidata.org/entity/Q1718', 'http://www.wikidata.org/entity/Q171943', 'http://www.wikidata.org/entity/Q172', 'http://www.wikidata.org/entity/Q1720', 'http://www.wikidata.org/entity/Q1721', 'http://www.wikidata.org/entity/Q172157', 'http://www.wikidata.org/entity/Q1722', 'http://www.wikidata.org/entity/Q1724', 'http://www.wikidata.org/entity/Q172415', 'http://www.wikidata.org/entity/Q172512', 'http://www.wikidata.org/entity/Q1726', 'http://www.wikidata.org/entity/Q1727945', 'http://www.wikidata.org/entity/Q1729', 'http://www.wikidata.org/entity/Q172996', 'http://www.wikidata.org/entity/Q17305931', 'http://www.wikidata.org/entity/Q1731', 'http://www.wikidata.org/entity/Q173121', 'http://www.wikidata.org/entity/Q173219', 'http://www.wikidata.org/entity/Q1733', 'http://www.wikidata.org/entity/Q173338', 'http://www.wikidata.org/entity/Q173474', 'http://www.wikidata.org/entity/Q1735', 'http://www.wikidata.org/entity/Q173532', 'http://www.wikidata.org/entity/Q1737', 'http://www.wikidata.org/entity/Q173731', 'http://www.wikidata.org/entity/Q1740592', 'http://www.wikidata.org/entity/Q1741', 'http://www.wikidata.org/entity/Q174262', 'http://www.wikidata.org/entity/Q174461', 'http://www.wikidata.org/entity/Q174665', 'http://www.wikidata.org/entity/Q174691', 'http://www.wikidata.org/entity/Q1748', 'http://www.wikidata.org/entity/Q1749526', 'http://www.wikidata.org/entity/Q1749869', 'http://www.wikidata.org/entity/Q175258', 'http://www.wikidata.org/entity/Q1754', 'http://www.wikidata.org/entity/Q175452', 'http://www.wikidata.org/entity/Q175517', 'http://www.wikidata.org/entity/Q1757', 'http://www.wikidata.org/entity/Q1757438', 'http://www.wikidata.org/entity/Q1761', 'http://www.wikidata.org/entity/Q1763', 'http://www.wikidata.org/entity/Q1764', 'http://www.wikidata.org/entity/Q1764282', 'http://www.wikidata.org/entity/Q1767796', 'http://www.wikidata.org/entity/Q1770', 'http://www.wikidata.org/entity/Q1773', 'http://www.wikidata.org/entity/Q1780', 'http://www.wikidata.org/entity/Q1781', 'http://www.wikidata.org/entity/Q1781511', 'http://www.wikidata.org/entity/Q1783374', 'http://www.wikidata.org/entity/Q178531', 'http://www.wikidata.org/entity/Q179046', 'http://www.wikidata.org/entity/Q1792', 'http://www.wikidata.org/entity/Q179387', 'http://www.wikidata.org/entity/Q1794', 'http://www.wikidata.org/entity/Q179431', 'http://www.wikidata.org/entity/Q179570', 'http://www.wikidata.org/entity/Q179608', 'http://www.wikidata.org/entity/Q179645', 'http://www.wikidata.org/entity/Q179830', 'http://www.wikidata.org/entity/Q1799', 'http://www.wikidata.org/entity/Q180103', 'http://www.wikidata.org/entity/Q18013', 'http://www.wikidata.org/entity/Q180773', 'http://www.wikidata.org/entity/Q180803', 'http://www.wikidata.org/entity/Q180810', 'http://www.wikidata.org/entity/Q18094', 'http://www.wikidata.org/entity/Q181007', 'http://www.wikidata.org/entity/Q181376', 'http://www.wikidata.org/entity/Q1815305', 'http://www.wikidata.org/entity/Q181578', 'http://www.wikidata.org/entity/Q1815867', 'http://www.wikidata.org/entity/Q181966', 'http://www.wikidata.org/entity/Q182059', 'http://www.wikidata.org/entity/Q182159', 'http://www.wikidata.org/entity/Q1822', 'http://www.wikidata.org/entity/Q182299', 'http://www.wikidata.org/entity/Q182852', 'http://www.wikidata.org/entity/Q18287233', 'http://www.wikidata.org/entity/Q182984', 'http://www.wikidata.org/entity/Q183124', 'http://www.wikidata.org/entity/Q183199', 'http://www.wikidata.org/entity/Q183298', 'http://www.wikidata.org/entity/Q18342086', 'http://www.wikidata.org/entity/Q18383', 'http://www.wikidata.org/entity/Q1842', 'http://www.wikidata.org/entity/Q1844', 'http://www.wikidata.org/entity/Q1848', 'http://www.wikidata.org/entity/Q1848222', 'http://www.wikidata.org/entity/Q184851', 'http://www.wikidata.org/entity/Q1850', 'http://www.wikidata.org/entity/Q1851', 'http://www.wikidata.org/entity/Q185134', 'http://www.wikidata.org/entity/Q185157', 'http://www.wikidata.org/entity/Q185336', 'http://www.wikidata.org/entity/Q1854', 'http://www.wikidata.org/entity/Q185458', 'http://www.wikidata.org/entity/Q185591', 'http://www.wikidata.org/entity/Q185678', 'http://www.wikidata.org/entity/Q185684', 'http://www.wikidata.org/entity/Q18569', 'http://www.wikidata.org/entity/Q185721', 'http://www.wikidata.org/entity/Q1858', 'http://www.wikidata.org/entity/Q1861', 'http://www.wikidata.org/entity/Q186234', 'http://www.wikidata.org/entity/Q1863', 'http://www.wikidata.org/entity/Q1865', 'http://www.wikidata.org/entity/Q1867', 'http://www.wikidata.org/entity/Q187136', 'http://www.wikidata.org/entity/Q1874', 'http://www.wikidata.org/entity/Q18746111', 'http://www.wikidata.org/entity/Q187593', 'http://www.wikidata.org/entity/Q18808', 'http://www.wikidata.org/entity/Q1886727', 'http://www.wikidata.org/entity/Q188673', 'http://www.wikidata.org/entity/Q188894', 'http://www.wikidata.org/entity/Q188904', 'http://www.wikidata.org/entity/Q1891', 'http://www.wikidata.org/entity/Q189138', 'http://www.wikidata.org/entity/Q1895', 'http://www.wikidata.org/entity/Q189685', 'http://www.wikidata.org/entity/Q1897', 'http://www.wikidata.org/entity/Q18970', 'http://www.wikidata.org/entity/Q1899', 'http://www.wikidata.org/entity/Q189901', 'http://www.wikidata.org/entity/Q189960', 'http://www.wikidata.org/entity/Q190060', 'http://www.wikidata.org/entity/Q19007871', 'http://www.wikidata.org/entity/Q190165', 'http://www.wikidata.org/entity/Q1903', 'http://www.wikidata.org/entity/Q19053', 'http://www.wikidata.org/entity/Q19116448', 'http://www.wikidata.org/entity/Q19116553', 'http://www.wikidata.org/entity/Q19151', 'http://www.wikidata.org/entity/Q1915327', 'http://www.wikidata.org/entity/Q191718', 'http://www.wikidata.org/entity/Q192271', 'http://www.wikidata.org/entity/Q192541', 'http://www.wikidata.org/entity/Q19279', 'http://www.wikidata.org/entity/Q192961', 'http://www.wikidata.org/entity/Q1930', 'http://www.wikidata.org/entity/Q193229', 'http://www.wikidata.org/entity/Q193250', 'http://www.wikidata.org/entity/Q193325', 'http://www.wikidata.org/entity/Q193342', 'http://www.wikidata.org/entity/Q193478', 'http://www.wikidata.org/entity/Q1939361', 'http://www.wikidata.org/entity/Q194338', 'http://www.wikidata.org/entity/Q1947', 'http://www.wikidata.org/entity/Q1948981', 'http://www.wikidata.org/entity/Q1951490', 'http://www.wikidata.org/entity/Q1953', 'http://www.wikidata.org/entity/Q19566', 'http://www.wikidata.org/entity/Q1957', 'http://www.wikidata.org/entity/Q1960', 'http://www.wikidata.org/entity/Q1961610', 'http://www.wikidata.org/entity/Q1962484', 'http://www.wikidata.org/entity/Q1963', 'http://www.wikidata.org/entity/Q196384', 'http://www.wikidata.org/entity/Q196483', 'http://www.wikidata.org/entity/Q19660', 'http://www.wikidata.org/entity/Q19689', 'http://www.wikidata.org/entity/Q196934', 'http://www.wikidata.org/entity/Q196938', 'http://www.wikidata.org/entity/Q197402', 'http://www.wikidata.org/entity/Q197934', 'http://www.wikidata.org/entity/Q19817341', 'http://www.wikidata.org/entity/Q198370', 'http://www.wikidata.org/entity/Q19881964', 'http://www.wikidata.org/entity/Q1989793', 'http://www.wikidata.org/entity/Q19944', 'http://www.wikidata.org/entity/Q199500', 'http://www.wikidata.org/entity/Q199528', 'http://www.wikidata.org/entity/Q199547', 'http://www.wikidata.org/entity/Q1996202', 'http://www.wikidata.org/entity/Q199723', 'http://www.wikidata.org/entity/Q1999000', 'http://www.wikidata.org/entity/Q200019', 'http://www.wikidata.org/entity/Q200061', 'http://www.wikidata.org/entity/Q200119', 'http://www.wikidata.org/entity/Q2001266', 'http://www.wikidata.org/entity/Q200200', 'http://www.wikidata.org/entity/Q2002121', 'http://www.wikidata.org/entity/Q200340', 'http://www.wikidata.org/entity/Q200441', 'http://www.wikidata.org/entity/Q200605', 'http://www.wikidata.org/entity/Q200713', 'http://www.wikidata.org/entity/Q200797', 'http://www.wikidata.org/entity/Q200805', 'http://www.wikidata.org/entity/Q200917', 'http://www.wikidata.org/entity/Q20133103', 'http://www.wikidata.org/entity/Q201442', 'http://www.wikidata.org/entity/Q202337', 'http://www.wikidata.org/entity/Q20241200', 'http://www.wikidata.org/entity/Q2025433', 'http://www.wikidata.org/entity/Q202560', 'http://www.wikidata.org/entity/Q2026112', 'http://www.wikidata.org/entity/Q202780', 'http://www.wikidata.org/entity/Q202973', 'http://www.wikidata.org/entity/Q203197', 'http://www.wikidata.org/entity/Q203301', 'http://www.wikidata.org/entity/Q203370', 'http://www.wikidata.org/entity/Q203476', 'http://www.wikidata.org/entity/Q20352', 'http://www.wikidata.org/entity/Q204150', 'http://www.wikidata.org/entity/Q204245', 'http://www.wikidata.org/entity/Q2043683', 'http://www.wikidata.org/entity/Q2044', 'http://www.wikidata.org/entity/Q204434', 'http://www.wikidata.org/entity/Q204720', 'http://www.wikidata.org/entity/Q2049431', 'http://www.wikidata.org/entity/Q205765', 'http://www.wikidata.org/entity/Q205832', 'http://www.wikidata.org/entity/Q206484', 'http://www.wikidata.org/entity/Q2065395', 'http://www.wikidata.org/entity/Q206900', 'http://www.wikidata.org/entity/Q2069869', 'http://www.wikidata.org/entity/Q20706255', 'http://www.wikidata.org/entity/Q207294', 'http://www.wikidata.org/entity/Q207429', 'http://www.wikidata.org/entity/Q207590', 'http://www.wikidata.org/entity/Q207752', 'http://www.wikidata.org/entity/Q207935', 'http://www.wikidata.org/entity/Q207972', 'http://www.wikidata.org/entity/Q208097', 'http://www.wikidata.org/entity/Q208162', 'http://www.wikidata.org/entity/Q2082', 'http://www.wikidata.org/entity/Q208318', 'http://www.wikidata.org/entity/Q208471', 'http://www.wikidata.org/entity/Q208514', 'http://www.wikidata.org/entity/Q208573', 'http://www.wikidata.org/entity/Q2086056', 'http://www.wikidata.org/entity/Q2087713', 'http://www.wikidata.org/entity/Q209016', 'http://www.wikidata.org/entity/Q209034', 'http://www.wikidata.org/entity/Q209349', 'http://www.wikidata.org/entity/Q209533', 'http://www.wikidata.org/entity/Q2096', 'http://www.wikidata.org/entity/Q210287', 'http://www.wikidata.org/entity/Q211055', 'http://www.wikidata.org/entity/Q211243', 'http://www.wikidata.org/entity/Q211760', 'http://www.wikidata.org/entity/Q2119', 'http://www.wikidata.org/entity/Q21197', 'http://www.wikidata.org/entity/Q211970', 'http://www.wikidata.org/entity/Q2123', 'http://www.wikidata.org/entity/Q212546', 'http://www.wikidata.org/entity/Q212680', 'http://www.wikidata.org/entity/Q212686', 'http://www.wikidata.org/entity/Q212773', 'http://www.wikidata.org/entity/Q213183', 'http://www.wikidata.org/entity/Q2132', 'http://www.wikidata.org/entity/Q2135', 'http://www.wikidata.org/entity/Q2135463', 'http://www.wikidata.org/entity/Q213555', 'http://www.wikidata.org/entity/Q213679', 'http://www.wikidata.org/entity/Q2138', 'http://www.wikidata.org/entity/Q213916', 'http://www.wikidata.org/entity/Q2141', 'http://www.wikidata.org/entity/Q21414421', 'http://www.wikidata.org/entity/Q214178', 'http://www.wikidata.org/entity/Q2143', 'http://www.wikidata.org/entity/Q2145', 'http://www.wikidata.org/entity/Q214681', 'http://www.wikidata.org/entity/Q214827', 'http://www.wikidata.org/entity/Q215646', 'http://www.wikidata.org/entity/Q215661', 'http://www.wikidata.org/entity/Q216', 'http://www.wikidata.org/entity/Q216075', 'http://www.wikidata.org/entity/Q216258', 'http://www.wikidata.org/entity/Q216794', 'http://www.wikidata.org/entity/Q216835', 'http://www.wikidata.org/entity/Q21711493', 'http://www.wikidata.org/entity/Q2174', 'http://www.wikidata.org/entity/Q217432', 'http://www.wikidata.org/entity/Q217610', 'http://www.wikidata.org/entity/Q217667', 'http://www.wikidata.org/entity/Q21770402', 'http://www.wikidata.org/entity/Q2180', 'http://www.wikidata.org/entity/Q218768', 'http://www.wikidata.org/entity/Q218861', 'http://www.wikidata.org/entity/Q219117', 'http://www.wikidata.org/entity/Q220', 'http://www.wikidata.org/entity/Q220445', 'http://www.wikidata.org/entity/Q2214', 'http://www.wikidata.org/entity/Q221436', 'http://www.wikidata.org/entity/Q2220449', 'http://www.wikidata.org/entity/Q2222874', 'http://www.wikidata.org/entity/Q223308', 'http://www.wikidata.org/entity/Q2235', 'http://www.wikidata.org/entity/Q223517', 'http://www.wikidata.org/entity/Q223917', 'http://www.wikidata.org/entity/Q225515', 'http://www.wikidata.org/entity/Q225641', 'http://www.wikidata.org/entity/Q225872', 'http://www.wikidata.org/entity/Q226', 'http://www.wikidata.org/entity/Q22687629', 'http://www.wikidata.org/entity/Q22690', 'http://www.wikidata.org/entity/Q2280', 'http://www.wikidata.org/entity/Q228405', 'http://www.wikidata.org/entity/Q2288', 'http://www.wikidata.org/entity/Q228811', 'http://www.wikidata.org/entity/Q230025', 'http://www.wikidata.org/entity/Q230104', 'http://www.wikidata.org/entity/Q23041', 'http://www.wikidata.org/entity/Q2305621', 'http://www.wikidata.org/entity/Q2308046', 'http://www.wikidata.org/entity/Q2312752', 'http://www.wikidata.org/entity/Q231318', 'http://www.wikidata.org/entity/Q2315241', 'http://www.wikidata.org/entity/Q23197', 'http://w</t>
+          <t>['180']</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['http://www.wikidata.org/entity/Q210669']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>What is the net income of Apple?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,37 +1118,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['38274618']</t>
+          <t>['http://www.wikidata.org/entity/Q5']</t>
         </is>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Which Greek parties are pro-European?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['1971-04-12T00:00:00Z', '1972-12-19T00:00:00Z', '1973-09-05T00:00:00Z', '1973-12-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['1973-12-03T00:00:00Z', '1972-12-19T00:00:00Z', '1971-04-12T00:00:00Z', '1973-09-05T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q103817549', 'http://www.wikidata.org/entity/Q104137', 'http://www.wikidata.org/entity/Q1125083', 'http://www.wikidata.org/entity/Q126699', 'http://www.wikidata.org/entity/Q1305799', 'http://www.wikidata.org/entity/Q1418932', 'http://www.wikidata.org/entity/Q1423573', 'http://www.wikidata.org/entity/Q1627161', 'http://www.wikidata.org/entity/Q174683', 'http://www.wikidata.org/entity/Q184255', 'http://www.wikidata.org/entity/Q332497', 'http://www.wikidata.org/entity/Q3382188', 'http://www.wikidata.org/entity/Q375186', 'http://www.wikidata.org/entity/Q399823', 'http://www.wikidata.org/entity/Q477630', 'http://www.wikidata.org/entity/Q502189', 'http://www.wikidata.org/entity/Q503338', 'http://www.wikidata.org/entity/Q544434', 'http://www.wikidata.org/entity/Q54812267', 'http://www.wikidata.org/entity/Q577306', 'http://www.wikidata.org/entity/Q598338', 'http://www.wikidata.org/entity/Q602522', 'http://www.wikidata.org/entity/Q611424', 'http://www.wikidata.org/entity/Q653251', 'http://www.wikidata.org/entity/Q741196', 'http://www.wikidata.org/entity/Q785461', 'http://www.wikidata.org/entity/Q906705']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>In which countries can you pay using the West African CFA franc?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,77 +1198,77 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>Which holidays are celebrated around the world?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q100271515', 'http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100740692', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10281798', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q1033140', 'http://www.wikidata.org/entity/Q103407630', 'http://www.wikidata.org/entity/Q103408482', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q103461996', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495385', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10541293', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q1054975', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106333', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106462957', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106708800', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107438167', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108333212', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10854390', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108783890', 'http://www.wikidata.org/entity/Q108803354', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q108927805', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q1090024', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q1095258', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109593799', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109727087', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q10985961', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q109923166', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110064747', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110192210', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110246928', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q111191757', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111551849', 'http://www.wikidata.org/entity/Q111551982', 'http://www.wikidata.org/entity/Q111552242', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111725919', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111848989', 'http://www.wikidata.org/entity/Q111850874', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111968636', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q11205278', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183440', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q112630989', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112667845', 'http://www.wikidata.org/entity/Q112667901', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112674649', 'http://www.wikidata.org/entity/Q112678738', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q112769957', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q11278649', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q112894936', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113406974', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470239', 'http://www.wikidata.org/entity/Q113470340', 'http://www.wikidata.org/entity/Q113470387', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113470522', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
         </is>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Which Greek parties are pro-European?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q61046702', 'http://www.wikidata.org/entity/Q7303029']</t>
         </is>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>To which artistic movement did the painter of The Three Dancers belong?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://www.wikidata.org/entity/Q166713', 'http://www.wikidata.org/entity/Q39427', 'http://www.wikidata.org/entity/Q42934']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://www.wikidata.org/entity/Q14378']</t>
         </is>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>What was the first Queen album?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="D43" t="b">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Give me all people that were born in Vienna and died in Berlin.</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q94743563']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q96452']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1338,37 +1338,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>What was the first Queen album?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q193490']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q597273']</t>
         </is>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="D47" t="b">
@@ -1378,17 +1378,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>Which television shows were created by John Cleese?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['1811']</t>
+          <t>['http://www.wikidata.org/entity/Q16401', 'http://www.wikidata.org/entity/Q212731', 'http://www.wikidata.org/entity/Q752945']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['1487']</t>
+          <t>['http://www.wikidata.org/entity/Q104525874', 'http://www.wikidata.org/entity/Q1748355', 'http://www.wikidata.org/entity/Q1766182', 'http://www.wikidata.org/entity/Q1766187', 'http://www.wikidata.org/entity/Q212731', 'http://www.wikidata.org/entity/Q3844976', 'http://www.wikidata.org/entity/Q3862561', 'http://www.wikidata.org/entity/Q3907621', 'http://www.wikidata.org/entity/Q3926086', 'http://www.wikidata.org/entity/Q752945']</t>
         </is>
       </c>
       <c r="D48" t="b">
@@ -1398,17 +1398,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
         </is>
       </c>
       <c r="D49" t="b">
@@ -1418,17 +1418,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="D50" t="b">
@@ -1438,17 +1438,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['34112.5']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['34112.5']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="D51" t="b">
@@ -1458,77 +1458,77 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+          <t>['1811']</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+          <t>['1487']</t>
         </is>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Give me all Danish movies.</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q20494829']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>What is the largest country in the world?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q124003554']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q159']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+          <t>What movies does Jesse Eisenberg play in?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -1538,20 +1538,60 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>What is the largest country in the world?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q124003554']</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q159']</t>
+        </is>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+        </is>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Who created Goofy?</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>['http://www.wikidata.org/entity/Q2420722']</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>['http://www.wikidata.org/entity/Q2420722']</t>
         </is>
       </c>
-      <c r="D56" t="b">
+      <c r="D58" t="b">
         <v>1</v>
       </c>
     </row>
